--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.medicationRequest</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.medicationRequest</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -1829,16 +1833,16 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>40</v>
@@ -1847,15 +1851,15 @@
         <v>40</v>
       </c>
       <c r="AP1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1866,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -1875,19 +1879,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1937,13 +1941,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -1972,10 +1976,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1986,7 +1990,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -1995,16 +1999,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2055,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2090,10 +2094,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2104,28 +2108,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2175,19 +2179,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2210,10 +2214,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2224,7 +2228,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2236,16 +2240,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2271,13 +2275,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2295,19 +2299,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2330,21 +2334,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2356,16 +2360,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2415,19 +2419,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2436,7 +2440,7 @@
         <v>40</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>40</v>
@@ -2450,14 +2454,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2476,16 +2480,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2535,7 +2539,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2556,7 +2560,7 @@
         <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>40</v>
@@ -2570,14 +2574,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2596,16 +2600,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2655,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2667,7 +2671,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2676,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>40</v>
@@ -2690,14 +2694,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2710,25 +2714,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -2777,7 +2781,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2789,7 +2793,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2798,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>40</v>
@@ -2812,10 +2816,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2838,16 +2842,16 @@
         <v>40</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2897,7 +2901,7 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2909,22 +2913,22 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
@@ -2932,10 +2936,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2943,31 +2947,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2993,13 +2997,13 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>40</v>
@@ -3017,31 +3021,31 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>40</v>
@@ -3052,10 +3056,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3066,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3078,16 +3082,16 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3113,13 +3117,13 @@
         <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>40</v>
@@ -3137,28 +3141,28 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>40</v>
@@ -3172,10 +3176,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3183,31 +3187,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3233,13 +3237,13 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>40</v>
@@ -3257,31 +3261,31 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>40</v>
@@ -3292,10 +3296,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3318,16 +3322,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3353,13 +3357,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -3377,7 +3381,7 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3389,19 +3393,19 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
@@ -3412,10 +3416,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3426,7 +3430,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -3435,16 +3439,16 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3471,13 +3475,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3495,31 +3499,31 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>40</v>
@@ -3530,10 +3534,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3544,28 +3548,28 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3615,19 +3619,19 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -3636,7 +3640,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -3650,10 +3654,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3664,7 +3668,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -3673,16 +3677,16 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3733,19 +3737,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -3754,7 +3758,7 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -3768,10 +3772,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3779,10 +3783,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3791,19 +3795,19 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3829,13 +3833,13 @@
         <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>40</v>
@@ -3853,34 +3857,34 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>40</v>
@@ -3888,10 +3892,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3899,10 +3903,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -3911,19 +3915,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3973,34 +3977,34 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>40</v>
@@ -4008,10 +4012,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4022,7 +4026,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -4034,16 +4038,16 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4093,34 +4097,34 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>40</v>
@@ -4128,10 +4132,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4154,13 +4158,13 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4211,7 +4215,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4223,19 +4227,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4246,10 +4250,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4260,7 +4264,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -4269,16 +4273,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4329,34 +4333,34 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
@@ -4364,10 +4368,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4378,7 +4382,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -4387,16 +4391,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4447,31 +4451,31 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>40</v>
@@ -4482,10 +4486,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4496,7 +4500,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4508,13 +4512,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4565,31 +4569,31 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>40</v>
@@ -4600,10 +4604,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4614,7 +4618,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -4623,19 +4627,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4661,13 +4665,13 @@
         <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>40</v>
@@ -4685,28 +4689,28 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -4720,10 +4724,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4734,7 +4738,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4746,13 +4750,13 @@
         <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4803,19 +4807,19 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -4824,10 +4828,10 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -4838,10 +4842,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4864,16 +4868,16 @@
         <v>40</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4899,13 +4903,13 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>40</v>
@@ -4923,7 +4927,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4935,22 +4939,22 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>40</v>
@@ -4958,10 +4962,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4984,16 +4988,16 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5043,7 +5047,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5055,19 +5059,19 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5078,10 +5082,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5101,16 +5105,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5161,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5173,16 +5177,16 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>40</v>
@@ -5196,10 +5200,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5219,16 +5223,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5279,7 +5283,7 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5291,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -5300,7 +5304,7 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>40</v>
@@ -5314,10 +5318,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5337,16 +5341,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5397,7 +5401,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5409,16 +5413,16 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>40</v>
@@ -5432,10 +5436,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5446,7 +5450,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5455,20 +5459,20 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
@@ -5517,28 +5521,28 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -5552,10 +5556,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5566,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -5578,16 +5582,16 @@
         <v>40</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5613,13 +5617,13 @@
         <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>40</v>
@@ -5637,19 +5641,19 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -5658,7 +5662,7 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -5672,10 +5676,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5698,13 +5702,13 @@
         <v>40</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5755,7 +5759,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5767,16 +5771,16 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -5790,10 +5794,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5816,13 +5820,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5873,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -5885,16 +5889,16 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -5908,10 +5912,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5934,16 +5938,16 @@
         <v>40</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5993,7 +5997,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6005,16 +6009,16 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
@@ -6028,10 +6032,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6042,7 +6046,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6054,13 +6058,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6111,28 +6115,28 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>40</v>
@@ -6146,10 +6150,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6160,7 +6164,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -6172,13 +6176,13 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6229,13 +6233,13 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
@@ -6250,7 +6254,7 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>40</v>
@@ -6264,14 +6268,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6290,16 +6294,16 @@
         <v>40</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6349,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6361,7 +6365,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -6370,7 +6374,7 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>40</v>
@@ -6384,14 +6388,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6404,25 +6408,25 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -6471,7 +6475,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6483,7 +6487,7 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -6492,7 +6496,7 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>40</v>
@@ -6506,10 +6510,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6520,7 +6524,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -6532,16 +6536,16 @@
         <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6591,19 +6595,19 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -6612,7 +6616,7 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>40</v>
@@ -6626,10 +6630,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6640,7 +6644,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6652,13 +6656,13 @@
         <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6709,13 +6713,13 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
@@ -6730,7 +6734,7 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>40</v>
@@ -6744,14 +6748,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6770,16 +6774,16 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6829,7 +6833,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6841,7 +6845,7 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6850,7 +6854,7 @@
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
@@ -6864,14 +6868,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6884,25 +6888,25 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -6951,7 +6955,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6963,7 +6967,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6972,7 +6976,7 @@
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
@@ -6986,10 +6990,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7000,7 +7004,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -7012,13 +7016,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7069,19 +7073,19 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -7090,7 +7094,7 @@
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
@@ -7104,10 +7108,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7118,7 +7122,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7130,13 +7134,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7187,19 +7191,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -7208,7 +7212,7 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7222,10 +7226,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7236,7 +7240,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7248,13 +7252,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7305,28 +7309,28 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>40</v>
@@ -7340,10 +7344,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7354,7 +7358,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
@@ -7366,19 +7370,19 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -7427,28 +7431,28 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>40</v>
@@ -7462,10 +7466,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7476,7 +7480,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -7488,16 +7492,16 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7547,34 +7551,34 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>40</v>
@@ -7582,10 +7586,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7596,7 +7600,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7608,13 +7612,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7665,34 +7669,34 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>40</v>
@@ -7700,10 +7704,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7714,7 +7718,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7726,16 +7730,16 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7785,28 +7789,28 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>40</v>
@@ -7820,10 +7824,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7834,7 +7838,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -7846,13 +7850,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7903,19 +7907,19 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -7924,10 +7928,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -7938,10 +7942,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7952,7 +7956,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -7964,13 +7968,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8021,28 +8025,28 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>40</v>
@@ -8056,10 +8060,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8070,7 +8074,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -8082,13 +8086,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8139,13 +8143,13 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
@@ -8160,7 +8164,7 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>40</v>
@@ -8174,14 +8178,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8200,16 +8204,16 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8259,7 +8263,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8271,7 +8275,7 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -8280,7 +8284,7 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>40</v>
@@ -8294,14 +8298,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8314,25 +8318,25 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -8381,7 +8385,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8393,7 +8397,7 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8402,7 +8406,7 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>40</v>
@@ -8416,10 +8420,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8427,10 +8431,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -8442,16 +8446,16 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8477,13 +8481,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -8501,34 +8505,34 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>40</v>
@@ -8536,10 +8540,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8550,7 +8554,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -8562,13 +8566,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8595,13 +8599,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -8619,34 +8623,34 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>40</v>
@@ -8654,10 +8658,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8668,7 +8672,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -8680,13 +8684,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8737,28 +8741,28 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>40</v>
@@ -8772,14 +8776,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8798,16 +8802,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8857,7 +8861,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -8869,7 +8873,7 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -8878,7 +8882,7 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>40</v>
@@ -8892,10 +8896,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8918,16 +8922,16 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8977,7 +8981,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -8989,16 +8993,16 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,6 +234,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Vista to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -247,9 +250,6 @@
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Vista to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Prescription
@@ -279,6 +279,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>Medication</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
   </si>
   <si>
     <t>CombinedMedicationRequest</t>
-  </si>
-  <si>
-    <t>Medication</t>
   </si>
   <si>
     <t>MedicationRequest.id</t>
@@ -1855,12 +1855,12 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.50390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="125.8203125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="29.50390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="125.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2100,13 +2100,13 @@
         <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -2695,10 +2695,10 @@
         <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>82</v>
@@ -2815,10 +2815,10 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>82</v>
@@ -2935,10 +2935,10 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -3057,10 +3057,10 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3171,22 +3171,22 @@
         <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3291,19 +3291,19 @@
         <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>82</v>
@@ -3411,16 +3411,16 @@
         <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3531,19 +3531,19 @@
         <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3654,16 +3654,16 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3769,19 +3769,19 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3895,10 +3895,10 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4013,10 +4013,10 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4127,22 +4127,22 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4247,22 +4247,22 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -4367,22 +4367,22 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AO21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4485,19 +4485,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4603,22 +4603,22 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -4721,19 +4721,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4839,19 +4839,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4959,16 +4959,16 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5083,13 +5083,13 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5197,22 +5197,22 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -5317,19 +5317,19 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5435,16 +5435,16 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5559,10 +5559,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5671,16 +5671,16 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5791,16 +5791,16 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5917,10 +5917,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6029,16 +6029,16 @@
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6147,16 +6147,16 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6267,16 +6267,16 @@
         <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6388,13 +6388,13 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6509,10 +6509,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6629,10 +6629,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6751,10 +6751,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6871,10 +6871,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6989,10 +6989,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7109,10 +7109,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7231,10 +7231,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7349,10 +7349,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7467,10 +7467,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7585,10 +7585,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7704,13 +7704,13 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7824,19 +7824,19 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -7942,19 +7942,19 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="52">
@@ -8062,13 +8062,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8183,13 +8183,13 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8298,13 +8298,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8419,10 +8419,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8539,10 +8539,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8661,10 +8661,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8778,19 +8778,19 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -8896,19 +8896,19 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -9011,16 +9011,16 @@
         <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9137,10 +9137,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9251,16 +9251,16 @@
         <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.medicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
